--- a/Remoting/Mapping IP-adressen.xlsx
+++ b/Remoting/Mapping IP-adressen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/u0068647_thomasmore_be/Documents/_Vakken/Powershell/VLab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://thomasmore365-my.sharepoint.com/personal/u0068647_thomasmore_be/Documents/_Vakken/Powershell/PS-Technologies/Remoting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_8D9AFBE4068A04AF24308D11BB9889158CAEF0AA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_8D9AFBE4068A04AF24308D11BB9889158CAEF0AA" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{976300E9-AB5E-4DE2-995B-36DA03F6034C}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
   <dimension ref="A2:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +586,7 @@
       <c r="B3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D3" t="s">
